--- a/biology/Zoologie/Ctenolucius/Ctenolucius.xlsx
+++ b/biology/Zoologie/Ctenolucius/Ctenolucius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ctenolucius est un genre de poissons téléostéens de la famille des Ctenoluciidae et de l'ordre des Characiformes. Se rencontre dans le sud de l'Amérique centrale (Panama) et l'ouest de l'Amérique du Sud (Colombie et Venezuela).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (17 juin 2015)[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (17 juin 2015):
 Ctenolucius beani (Fowler, 1907)
 Ctenolucius hujeta (Valenciennes, 1850)</t>
         </is>
